--- a/Basic-Py-Projects/basic_CRUD_in_py/data/user_data.xlsx
+++ b/Basic-Py-Projects/basic_CRUD_in_py/data/user_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfcct\Desktop\progams\basic_CRUD_in_py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfcct\Desktop\progams\basic_CRUD_in_py\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA6DCA-1E1F-4958-961F-21B482E22542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069FE05F-C778-437A-A7C5-B3FF5FFB5482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1800" windowWidth="14685" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="1110" windowWidth="14685" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>user_id</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -161,11 +170,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -174,6 +224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,8 +400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E92D785-283B-42D5-9852-E2A1E77C58DD}" name="Tabela1" displayName="Tabela1" ref="A1:E2" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E2" xr:uid="{2E92D785-283B-42D5-9852-E2A1E77C58DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E92D785-283B-42D5-9852-E2A1E77C58DD}" name="Tabela1" displayName="Tabela1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E3" xr:uid="{2E92D785-283B-42D5-9852-E2A1E77C58DD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{22274416-0924-40C1-9EFC-14B89970A661}" name="user_id" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{41F47BE4-CCDD-4332-9D56-726294FC5AE9}" name="name" dataDxfId="3"/>
@@ -626,7 +679,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +721,23 @@
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9">
+        <v>123</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/Basic-Py-Projects/basic_CRUD_in_py/data/user_data.xlsx
+++ b/Basic-Py-Projects/basic_CRUD_in_py/data/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>white</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test name</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>red</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,61 @@
           <t>123</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>awdas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>giulio</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>abacate</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>123aa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
